--- a/آمارفروش برنامه های تولیدی.xlsx
+++ b/آمارفروش برنامه های تولیدی.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\تبلیغات و آنالیز\آنالیز محصولات سایت\برنامه های تولیدی\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896BAA47-2567-4CB2-9D5A-B30E2CF45304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E468CD7-0F54-4903-AA77-18B06FE24026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="قصه های آفتابگردون" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>نام قسمت</t>
   </si>
@@ -65,9 +74,6 @@
     <t>تعداد تماشا</t>
   </si>
   <si>
-    <t>جمع کل</t>
-  </si>
-  <si>
     <t>بازه زمانی 15 اسفند 1401 تا 9 اردیبهشت 1403</t>
   </si>
   <si>
@@ -153,13 +159,23 @@
   </si>
   <si>
     <t xml:space="preserve">تعداد تماشا </t>
+  </si>
+  <si>
+    <t>فروش</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_-_ ;_ * #,##0.00\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,32 +186,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="B Mitra"/>
-      <charset val="178"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="B Mitra"/>
+      <name val="A  Mitra_1 (MRT)"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="A  Mitra_1 (MRT)"/>
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -203,48 +220,1334 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -255,6 +1558,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C33E999-4BA1-44A0-A785-32D2D1F43E4E}" name="Table1" displayName="Table1" ref="A1:G7" totalsRowCount="1" headerRowDxfId="46" dataDxfId="47">
+  <autoFilter ref="A1:G6" xr:uid="{2C33E999-4BA1-44A0-A785-32D2D1F43E4E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CC8BFE86-0835-4373-872E-D1B3B3C480FA}" name="ردیف" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{7FA8013A-C910-4219-9CEB-E506898064D4}" name="شناسه اثر" dataDxfId="48" totalsRowDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{DD748409-C5FE-4766-ACAB-D50E79BCE8DF}" name="نام قسمت" dataDxfId="45" totalsRowDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{CBEDF184-2A08-4E89-BE2C-7F37DF106568}" name="تعداد دانلود " totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="37" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{28236A64-673A-4230-9D58-292A17D5C023}" name="تعداد تماشا" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="36" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{66F7AFEC-3218-4926-BDC3-3E9236764054}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="35" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{943F8F07-F843-48F3-A6EB-4488DE5BCA75}" name="فروش" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="34" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E7E37746-D959-4995-B8A3-6B786F451A6E}" name="Table2" displayName="Table2" ref="A1:H12" totalsRowCount="1" headerRowDxfId="28" dataDxfId="29">
+  <autoFilter ref="A1:H11" xr:uid="{E7E37746-D959-4995-B8A3-6B786F451A6E}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{82173538-F2E3-41B0-9FBA-A2A8B1A2F8D7}" name="ردیف" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{DF414498-396F-4C35-BBF5-55A5A9A9CAD1}" name="شناسه اثر" dataDxfId="32" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{8CE2BCD3-0DAE-45CB-9B9E-AE9D1E0FDDAD}" name="نام قسمت" dataDxfId="31" totalsRowDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{0EE8B66C-39C0-4B94-9152-308D8398CFAB}" name="ایدی استریم" dataDxfId="30" totalsRowDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{62654C44-929E-4E78-BB13-6CC17F8080FE}" name="تعداد دانلود " dataDxfId="27" totalsRowDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{6744A6DF-C59F-420B-A749-695BB6ACFE99}" name="تعداد تماشا" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="18" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{334FA3F8-0A14-48DD-A93A-94C9D38D8500}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="17" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{43EC7500-CFB7-47AB-ABD2-AB683943F232}" name="فروش" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="16" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BABAC824-CC2F-4CDE-9685-DB65B0BF2556}" name="Table3" displayName="Table3" ref="A1:G17" totalsRowCount="1" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:G16" xr:uid="{BABAC824-CC2F-4CDE-9685-DB65B0BF2556}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{27FC1FDA-58D9-4BCA-9CDF-17AC15F8F9E2}" name="ردیف" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{17506826-8184-4F4D-A2E0-94FD4B75774A}" name="شناسه اثر" dataDxfId="14" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{EC9409DE-3012-4657-9552-548DF1BCE625}" name="نام قسمت" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{ABE1D849-1DA4-4511-B854-493E61F33AF2}" name="تعداد دانلود " dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{D659AB40-3B95-4D66-82EC-D363343464A6}" name="تعداد تماشا " dataDxfId="9" totalsRowDxfId="2" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{FCA8FDA3-B19F-4D6E-A452-813A9EEA256F}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{128749D9-5179-48BB-91F0-E5439D544E8A}" name="فروش" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,804 +1872,953 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>6479</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="8">
         <v>75</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="8">
         <v>170</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="8">
         <v>602</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="G2" s="8">
+        <f>192000+136000+58000</f>
+        <v>386000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>6513</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8">
         <v>87</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="8">
         <v>122</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="8">
         <v>206</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="G3" s="8">
+        <f>91000+163000+160000</f>
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>7814</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="8">
         <v>63</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="8">
         <v>184</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="8">
         <v>565</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="G4" s="8">
+        <f>160000+112000+71000</f>
+        <v>343000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>7823</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="8">
         <v>71</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="8">
         <v>226</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <v>648</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="G5" s="8">
+        <f>190000+180000+85000</f>
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>8548</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="8">
         <v>98</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="8">
         <v>562</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="8">
         <v>7764</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
+      <c r="G6" s="8">
+        <f>440000+210000</f>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9">
+        <f>SUBTOTAL(109,Table1[[تعداد دانلود ]])</f>
+        <v>394</v>
+      </c>
+      <c r="E7" s="9">
+        <f>SUBTOTAL(109,Table1[تعداد تماشا])</f>
+        <v>1264</v>
+      </c>
+      <c r="F7" s="9">
+        <f>SUBTOTAL(109,Table1[دقایق تماشا])</f>
+        <v>9785</v>
+      </c>
+      <c r="G7" s="9">
+        <f>SUBTOTAL(109,Table1[فروش])</f>
+        <v>2248000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3">
-        <f>SUM(D2:D6)</f>
-        <v>394</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" ref="E7:F7" si="0">SUM(E2:E6)</f>
-        <v>1264</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>9785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E91EF7-3F72-46E5-9B93-18FF36E10B1C}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="H1" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>9061</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3">
         <v>549</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8">
         <v>262</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="8">
         <v>1262</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="H2" s="8">
+        <v>498000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>9094</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
         <v>620</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8">
         <v>108</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="8">
         <v>472</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="H3" s="8">
+        <v>278000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>9248</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3">
         <v>762</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8">
         <v>42</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="8">
         <v>341</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="H4" s="8">
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>9251</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
         <v>768</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8">
         <v>81</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="8">
         <v>572</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="H5" s="8">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>9252</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3">
         <v>785</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8">
         <v>75</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="8">
         <v>560</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="H6" s="8">
+        <v>213000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>9291</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3">
         <v>810</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8">
         <v>155</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="8">
         <v>1143</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="H7" s="8">
+        <v>478000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>9302</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3">
         <v>831</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8">
         <v>184</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="8">
         <v>1588</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="H8" s="8">
+        <v>602000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>9412</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3">
         <v>932</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8">
         <v>57</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="8">
         <v>1231</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="H9" s="8">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>9417</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3">
         <v>939</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8">
         <v>52</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="8">
         <v>461</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="H10" s="8">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>9426</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3">
         <v>949</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8">
         <v>59</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="8">
         <v>423</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3" t="s">
+      <c r="H11" s="8">
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="9">
+        <f>SUBTOTAL(109,Table2[تعداد تماشا])</f>
+        <v>1075</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUBTOTAL(109,Table2[دقایق تماشا])</f>
+        <v>8053</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUBTOTAL(109,Table2[فروش])</f>
+        <v>3039000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="C15" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2">
-        <f>SUM(F2:F11)</f>
-        <v>1075</v>
-      </c>
-      <c r="G12" s="2">
-        <f>SUM(G2:G11)</f>
-        <v>8053</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF87115-02BA-4D9D-AE6F-8E0D75C3C19D}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="15" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="B2" s="3">
+        <v>6952</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8">
+        <v>144</v>
+      </c>
+      <c r="E2" s="8">
+        <v>510</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4180</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7960</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8">
+        <v>156</v>
+      </c>
+      <c r="E3" s="8">
+        <v>487</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3874</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7925</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8">
+        <v>124</v>
+      </c>
+      <c r="E4" s="8">
+        <v>435</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1490</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6217</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8">
+        <v>48</v>
+      </c>
+      <c r="E5" s="8">
+        <v>97</v>
+      </c>
+      <c r="F5" s="8">
+        <v>512</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5971</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8">
+        <v>55</v>
+      </c>
+      <c r="E6" s="8">
+        <v>116</v>
+      </c>
+      <c r="F6" s="8">
+        <v>77</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6680</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8">
+        <v>47</v>
+      </c>
+      <c r="F7" s="8">
+        <v>347</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6509</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8">
+        <v>126</v>
+      </c>
+      <c r="F8" s="8">
+        <v>495</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6457</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8">
+        <v>23</v>
+      </c>
+      <c r="E9" s="8">
+        <v>54</v>
+      </c>
+      <c r="F9" s="8">
+        <v>260</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6366</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8">
+        <v>36</v>
+      </c>
+      <c r="E10" s="8">
+        <v>55</v>
+      </c>
+      <c r="F10" s="8">
+        <v>183</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7824</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="8">
+        <v>44</v>
+      </c>
+      <c r="E11" s="8">
+        <v>65</v>
+      </c>
+      <c r="F11" s="8">
+        <v>325</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6731</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8">
+        <v>32</v>
+      </c>
+      <c r="E12" s="8">
+        <v>44</v>
+      </c>
+      <c r="F12" s="8">
+        <v>123</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6511</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8">
+        <v>23</v>
+      </c>
+      <c r="F13" s="8">
+        <v>207</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6074</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8">
+        <v>26</v>
+      </c>
+      <c r="E14" s="8">
+        <v>30</v>
+      </c>
+      <c r="F14" s="8">
+        <v>38</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7825</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8">
+        <v>46</v>
+      </c>
+      <c r="E15" s="8">
+        <v>146</v>
+      </c>
+      <c r="F15" s="8">
+        <v>801</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>6952</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2">
-        <v>144</v>
-      </c>
-      <c r="E2" s="2">
-        <v>510</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>7960</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2">
-        <v>156</v>
-      </c>
-      <c r="E3" s="2">
-        <v>487</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3874</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>7925</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2">
-        <v>124</v>
-      </c>
-      <c r="E4" s="2">
-        <v>435</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>6217</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2">
-        <v>97</v>
-      </c>
-      <c r="F5" s="2">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5971</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2">
-        <v>55</v>
-      </c>
-      <c r="E6" s="2">
-        <v>116</v>
-      </c>
-      <c r="F6" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6680</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>6509</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2">
-        <v>126</v>
-      </c>
-      <c r="F8" s="2">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>6457</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2">
-        <v>54</v>
-      </c>
-      <c r="F9" s="2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>6366</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2">
-        <v>36</v>
-      </c>
-      <c r="E10" s="2">
-        <v>55</v>
-      </c>
-      <c r="F10" s="2">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>7824</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2">
-        <v>44</v>
-      </c>
-      <c r="E11" s="2">
-        <v>65</v>
-      </c>
-      <c r="F11" s="2">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B16" s="3">
+        <v>6593</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="8">
+        <v>821</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2235</v>
+      </c>
+      <c r="F16" s="8">
+        <v>12913</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17">
+        <f>SUBTOTAL(109,Table3[دقایق تماشا])</f>
+        <v>25825</v>
+      </c>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>6731</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2">
-        <v>44</v>
-      </c>
-      <c r="F12" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6511</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>6074</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>7825</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2">
-        <v>46</v>
-      </c>
-      <c r="E15" s="2">
-        <v>146</v>
-      </c>
-      <c r="F15" s="2">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2">
-        <v>6593</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2">
-        <v>821</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2235</v>
-      </c>
-      <c r="F16" s="2">
-        <v>12913</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/آمارفروش برنامه های تولیدی.xlsx
+++ b/آمارفروش برنامه های تولیدی.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E468CD7-0F54-4903-AA77-18B06FE24026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F8CD46-1D64-467D-95AC-C1DC79036BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="قصه های آفتابگردون" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_-_ ;_ * #,##0.00\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -246,28 +246,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -293,84 +293,85 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -471,85 +472,391 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -606,6 +913,131 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -650,312 +1082,184 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1031,210 +1335,85 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1335,96 +1514,17 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1446,106 +1546,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1561,49 +1561,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C33E999-4BA1-44A0-A785-32D2D1F43E4E}" name="Table1" displayName="Table1" ref="A1:G7" totalsRowCount="1" headerRowDxfId="46" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C33E999-4BA1-44A0-A785-32D2D1F43E4E}" name="Table1" displayName="Table1" ref="A1:G7" totalsRowCount="1" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A1:G6" xr:uid="{2C33E999-4BA1-44A0-A785-32D2D1F43E4E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CC8BFE86-0835-4373-872E-D1B3B3C480FA}" name="ردیف" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{7FA8013A-C910-4219-9CEB-E506898064D4}" name="شناسه اثر" dataDxfId="48" totalsRowDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{DD748409-C5FE-4766-ACAB-D50E79BCE8DF}" name="نام قسمت" dataDxfId="45" totalsRowDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{CBEDF184-2A08-4E89-BE2C-7F37DF106568}" name="تعداد دانلود " totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="37" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{28236A64-673A-4230-9D58-292A17D5C023}" name="تعداد تماشا" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="36" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{66F7AFEC-3218-4926-BDC3-3E9236764054}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="35" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{943F8F07-F843-48F3-A6EB-4488DE5BCA75}" name="فروش" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="34" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{CC8BFE86-0835-4373-872E-D1B3B3C480FA}" name="ردیف" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{7FA8013A-C910-4219-9CEB-E506898064D4}" name="شناسه اثر" dataDxfId="46" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{DD748409-C5FE-4766-ACAB-D50E79BCE8DF}" name="نام قسمت" dataDxfId="45" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{CBEDF184-2A08-4E89-BE2C-7F37DF106568}" name="تعداد دانلود " totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="3" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{28236A64-673A-4230-9D58-292A17D5C023}" name="تعداد تماشا" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="2" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{66F7AFEC-3218-4926-BDC3-3E9236764054}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="1" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{943F8F07-F843-48F3-A6EB-4488DE5BCA75}" name="فروش" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="0" dataCellStyle="Comma" totalsRowCellStyle="Comma">
+      <totalsRowFormula>MEDIAN(G2:G6)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E7E37746-D959-4995-B8A3-6B786F451A6E}" name="Table2" displayName="Table2" ref="A1:H12" totalsRowCount="1" headerRowDxfId="28" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E7E37746-D959-4995-B8A3-6B786F451A6E}" name="Table2" displayName="Table2" ref="A1:H12" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:H11" xr:uid="{E7E37746-D959-4995-B8A3-6B786F451A6E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{82173538-F2E3-41B0-9FBA-A2A8B1A2F8D7}" name="ردیف" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{DF414498-396F-4C35-BBF5-55A5A9A9CAD1}" name="شناسه اثر" dataDxfId="32" totalsRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{8CE2BCD3-0DAE-45CB-9B9E-AE9D1E0FDDAD}" name="نام قسمت" dataDxfId="31" totalsRowDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{0EE8B66C-39C0-4B94-9152-308D8398CFAB}" name="ایدی استریم" dataDxfId="30" totalsRowDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{62654C44-929E-4E78-BB13-6CC17F8080FE}" name="تعداد دانلود " dataDxfId="27" totalsRowDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{6744A6DF-C59F-420B-A749-695BB6ACFE99}" name="تعداد تماشا" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="18" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{334FA3F8-0A14-48DD-A93A-94C9D38D8500}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="17" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{43EC7500-CFB7-47AB-ABD2-AB683943F232}" name="فروش" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="16" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{82173538-F2E3-41B0-9FBA-A2A8B1A2F8D7}" name="ردیف" totalsRowLabel="Total" dataDxfId="38" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{DF414498-396F-4C35-BBF5-55A5A9A9CAD1}" name="شناسه اثر" dataDxfId="37" totalsRowDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{8CE2BCD3-0DAE-45CB-9B9E-AE9D1E0FDDAD}" name="نام قسمت" dataDxfId="36" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{0EE8B66C-39C0-4B94-9152-308D8398CFAB}" name="ایدی استریم" dataDxfId="35" totalsRowDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{62654C44-929E-4E78-BB13-6CC17F8080FE}" name="تعداد دانلود " dataDxfId="34" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{6744A6DF-C59F-420B-A749-695BB6ACFE99}" name="تعداد تماشا" totalsRowFunction="var" dataDxfId="33" totalsRowDxfId="9" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{334FA3F8-0A14-48DD-A93A-94C9D38D8500}" name="دقایق تماشا" totalsRowFunction="stdDev" dataDxfId="32" totalsRowDxfId="8" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{43EC7500-CFB7-47AB-ABD2-AB683943F232}" name="فروش" dataDxfId="31" totalsRowDxfId="7" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BABAC824-CC2F-4CDE-9685-DB65B0BF2556}" name="Table3" displayName="Table3" ref="A1:G17" totalsRowCount="1" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BABAC824-CC2F-4CDE-9685-DB65B0BF2556}" name="Table3" displayName="Table3" ref="A1:G17" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:G16" xr:uid="{BABAC824-CC2F-4CDE-9685-DB65B0BF2556}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{27FC1FDA-58D9-4BCA-9CDF-17AC15F8F9E2}" name="ردیف" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{17506826-8184-4F4D-A2E0-94FD4B75774A}" name="شناسه اثر" dataDxfId="14" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{EC9409DE-3012-4657-9552-548DF1BCE625}" name="نام قسمت" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{ABE1D849-1DA4-4511-B854-493E61F33AF2}" name="تعداد دانلود " dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{D659AB40-3B95-4D66-82EC-D363343464A6}" name="تعداد تماشا " dataDxfId="9" totalsRowDxfId="2" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{FCA8FDA3-B19F-4D6E-A452-813A9EEA256F}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{128749D9-5179-48BB-91F0-E5439D544E8A}" name="فروش" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{27FC1FDA-58D9-4BCA-9CDF-17AC15F8F9E2}" name="ردیف" totalsRowLabel="Total" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{17506826-8184-4F4D-A2E0-94FD4B75774A}" name="شناسه اثر" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{EC9409DE-3012-4657-9552-548DF1BCE625}" name="نام قسمت" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{ABE1D849-1DA4-4511-B854-493E61F33AF2}" name="تعداد دانلود " dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{D659AB40-3B95-4D66-82EC-D363343464A6}" name="تعداد تماشا " dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{FCA8FDA3-B19F-4D6E-A452-813A9EEA256F}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{128749D9-5179-48BB-91F0-E5439D544E8A}" name="فروش" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1874,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1883,9 +1885,9 @@
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
@@ -2052,8 +2054,8 @@
         <v>9785</v>
       </c>
       <c r="G7" s="9">
-        <f>SUBTOTAL(109,Table1[فروش])</f>
-        <v>2248000</v>
+        <f>MEDIAN(G2:G6)</f>
+        <v>414000</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2075,7 +2077,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2084,10 +2086,10 @@
     <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="12" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -2386,17 +2388,14 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="9">
-        <f>SUBTOTAL(109,Table2[تعداد تماشا])</f>
-        <v>1075</v>
+        <f>SUBTOTAL(110,Table2[تعداد تماشا])</f>
+        <v>5112.2777777777774</v>
       </c>
       <c r="G12" s="9">
-        <f>SUBTOTAL(109,Table2[دقایق تماشا])</f>
-        <v>8053</v>
-      </c>
-      <c r="H12" s="9">
-        <f>SUBTOTAL(109,Table2[فروش])</f>
-        <v>3039000</v>
-      </c>
+        <f>SUBTOTAL(107,Table2[دقایق تماشا])</f>
+        <v>449.98964185609623</v>
+      </c>
+      <c r="H12" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="C15" s="2" t="s">
@@ -2415,8 +2414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF87115-02BA-4D9D-AE6F-8E0D75C3C19D}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,8 +2423,8 @@
     <col min="1" max="1" width="3.85546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="13" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="15" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="15" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="15" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
